--- a/src/main/resources/testdata/testdata.xlsx
+++ b/src/main/resources/testdata/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/latestPageObjectModelFramework/src/main/resources/configfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\eclipse-workspace\webframework\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92AE3D8-8947-3F41-B8FF-1CFD477E437F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57BD29-790D-4A72-8AB5-90028358E5C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Test Steps</t>
   </si>
@@ -72,28 +72,37 @@
     <t>TestNameStart</t>
   </si>
   <si>
-    <t>LoginTestDataStart</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>runMode</t>
-  </si>
-  <si>
-    <t>1529830551216@gmail.com</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>2222222222222@gmail.com</t>
+  </si>
+  <si>
+    <t>1111111111111@gmail.com</t>
+  </si>
+  <si>
+    <t>3333333333333@gmail.com</t>
+  </si>
+  <si>
+    <t>login1</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>login3</t>
   </si>
 </sst>
 </file>
@@ -494,13 +503,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -514,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,9 +592,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -593,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -601,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -625,75 +634,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD0CFE-F178-DB43-95FD-EA2A075B2340}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9CD3D93C-2FBA-BD4B-9477-D75209FABEE7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{512EF6B6-3484-D04D-B889-69BE7B7B99C8}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{48AF9F90-9F5B-B04A-8876-7EEB3986E76D}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9CD3D93C-2FBA-BD4B-9477-D75209FABEE7}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{512EF6B6-3484-D04D-B889-69BE7B7B99C8}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{48AF9F90-9F5B-B04A-8876-7EEB3986E76D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -703,7 +705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/testdata/testdata.xlsx
+++ b/src/main/resources/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\eclipse-workspace\webframework\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57BD29-790D-4A72-8AB5-90028358E5C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1F002-39CE-40FA-ABFC-E6D30319B1FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Test Steps</t>
   </si>
@@ -75,34 +75,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>password1</t>
   </si>
   <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>2222222222222@gmail.com</t>
-  </si>
-  <si>
-    <t>1111111111111@gmail.com</t>
-  </si>
-  <si>
-    <t>3333333333333@gmail.com</t>
-  </si>
-  <si>
     <t>login1</t>
   </si>
   <si>
-    <t>login2</t>
-  </si>
-  <si>
-    <t>login3</t>
+    <t>11111@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -634,10 +613,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD0CFE-F178-DB43-95FD-EA2A075B2340}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -648,54 +627,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{9CD3D93C-2FBA-BD4B-9477-D75209FABEE7}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{512EF6B6-3484-D04D-B889-69BE7B7B99C8}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{48AF9F90-9F5B-B04A-8876-7EEB3986E76D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
